--- a/Informe_Bitacora_Segundo_Parcial_Fisica_1.xlsx
+++ b/Informe_Bitacora_Segundo_Parcial_Fisica_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Fisica 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C46C81FD-9B15-4180-A23D-F16142D54118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5333122-C673-487D-AC92-AA7261011067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluación_Continua" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,13 +736,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1099,11 +1096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1113,7 @@
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1198,11 +1195,11 @@
         <f>SUM(G2:J2)</f>
         <v>4</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <f>(K2*2.5)</f>
         <v>10</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <f>L2*0.5</f>
         <v>5</v>
       </c>
@@ -1245,11 +1242,11 @@
         <f t="shared" ref="K3:K22" si="0">SUM(G3:J3)</f>
         <v>4</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <f t="shared" ref="L3:L22" si="1">(K3*2.5)</f>
         <v>10</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <f t="shared" ref="M3:M22" si="2">L3*0.5</f>
         <v>5</v>
       </c>
@@ -1292,11 +1289,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1339,11 +1336,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1383,11 +1380,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1427,11 +1424,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1471,11 +1468,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1515,11 +1512,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1559,11 +1556,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1590,20 +1587,26 @@
       <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="14">
+        <v>4</v>
+      </c>
+      <c r="L11" s="13">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="M11" s="15">
+        <v>10</v>
+      </c>
+      <c r="M11" s="14">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1641,11 +1644,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1672,20 +1675,26 @@
       <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="11"/>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="14">
+        <v>3</v>
+      </c>
+      <c r="L13" s="13">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="M13" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="M13" s="14">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1723,11 +1732,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1754,20 +1763,26 @@
       <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="14">
+        <v>4</v>
+      </c>
+      <c r="L15" s="13">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="M15" s="15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="14">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1805,11 +1820,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1842,18 +1857,20 @@
       <c r="I17" s="8">
         <v>1</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L17" s="14">
+        <v>4</v>
+      </c>
+      <c r="L17" s="13">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="M17" s="15">
+        <v>10</v>
+      </c>
+      <c r="M17" s="14">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,22 +1895,26 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
       <c r="J18" s="10">
         <v>1</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="14">
+        <v>4</v>
+      </c>
+      <c r="L18" s="13">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="2"/>
         <v>5</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1931,11 +1952,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1975,11 +1996,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -2019,11 +2040,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -2050,20 +2071,26 @@
       <c r="G22" s="5">
         <v>1</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="11"/>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="14">
+        <v>3</v>
+      </c>
+      <c r="L22" s="13">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="M22" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="M22" s="14">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
